--- a/raw_data/20200818_saline/20200818_Sensor0_Test_54.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_54.xlsx
@@ -1,1112 +1,1528 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F576030-82AD-4172-9E4C-8A80BE6A1AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>47702.889631</v>
+        <v>47702.889630999998</v>
       </c>
       <c r="B2" s="1">
-        <v>13.250803</v>
+        <v>13.250802999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>905.312000</v>
+        <v>905.31200000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.997000</v>
+        <v>-196.99700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>47713.269446</v>
+        <v>47713.269445999998</v>
       </c>
       <c r="G2" s="1">
         <v>13.253686</v>
       </c>
       <c r="H2" s="1">
-        <v>922.056000</v>
+        <v>922.05600000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.104000</v>
+        <v>-167.10400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>47723.765787</v>
+        <v>47723.765786999997</v>
       </c>
       <c r="L2" s="1">
-        <v>13.256602</v>
+        <v>13.256602000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.296000</v>
+        <v>944.29600000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.731000</v>
+        <v>-119.73099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>47734.247236</v>
+        <v>47734.247236000003</v>
       </c>
       <c r="Q2" s="1">
         <v>13.259513</v>
       </c>
       <c r="R2" s="1">
-        <v>950.842000</v>
+        <v>950.84199999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.218000</v>
+        <v>-104.218</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>47744.799592</v>
+        <v>47744.799592000003</v>
       </c>
       <c r="V2" s="1">
         <v>13.262444</v>
       </c>
       <c r="W2" s="1">
-        <v>957.205000</v>
+        <v>957.20500000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.368100</v>
+        <v>-90.368099999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>47754.951257</v>
+        <v>47754.951257000001</v>
       </c>
       <c r="AA2" s="1">
         <v>13.265264</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.537000</v>
+        <v>964.53700000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.453300</v>
+        <v>-80.453299999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>47765.484253</v>
+        <v>47765.484253000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.268190</v>
+        <v>13.268190000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.607000</v>
+        <v>969.60699999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.146800</v>
+        <v>-80.146799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>47776.268270</v>
+        <v>47776.26827</v>
       </c>
       <c r="AK2" s="1">
         <v>13.271186</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.475000</v>
+        <v>977.47500000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.080800</v>
+        <v>-88.080799999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>47786.763615</v>
+        <v>47786.763615000003</v>
       </c>
       <c r="AP2" s="1">
         <v>13.274101</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.692000</v>
+        <v>986.69200000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>47797.766369</v>
+        <v>47797.766368999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.277157</v>
+        <v>13.277157000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.137000</v>
+        <v>998.13699999999994</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.861000</v>
+        <v>-124.861</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>47808.944708</v>
+        <v>47808.944708000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.280262</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.720000</v>
+        <v>-143.72</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>47819.945971</v>
+        <v>47819.945971000001</v>
       </c>
       <c r="BE2" s="1">
         <v>13.283318</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.270000</v>
+        <v>1053.27</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.227000</v>
+        <v>-229.227</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>47830.903590</v>
+        <v>47830.903590000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>13.286362</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.527000</v>
+        <v>-366.52699999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>47842.468312</v>
+        <v>47842.468311999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>13.289575</v>
+        <v>13.289574999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.850000</v>
+        <v>1264.8499999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.980000</v>
+        <v>-578.98</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>47852.830270</v>
+        <v>47852.830269999999</v>
       </c>
       <c r="BT2" s="1">
         <v>13.292453</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-806.109000</v>
+        <v>-806.10900000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>47863.459498</v>
+        <v>47863.459497999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.295405</v>
+        <v>13.295405000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1044.140000</v>
+        <v>-1044.1400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>47874.849133</v>
+        <v>47874.849133000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.298569</v>
+        <v>13.298569000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1600.480000</v>
+        <v>-1600.48</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>47703.313710</v>
+        <v>47703.313710000002</v>
       </c>
       <c r="B3" s="1">
-        <v>13.250920</v>
+        <v>13.250920000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>905.465000</v>
+        <v>905.46500000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.988000</v>
+        <v>-196.988</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>47713.681089</v>
+        <v>47713.681088999998</v>
       </c>
       <c r="G3" s="1">
-        <v>13.253800</v>
+        <v>13.2538</v>
       </c>
       <c r="H3" s="1">
-        <v>922.093000</v>
+        <v>922.09299999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.135000</v>
+        <v>-167.13499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>47724.126834</v>
+        <v>47724.126834000002</v>
       </c>
       <c r="L3" s="1">
-        <v>13.256702</v>
+        <v>13.256702000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.342000</v>
+        <v>944.34199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.674000</v>
+        <v>-119.67400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>47734.605813</v>
+        <v>47734.605813000002</v>
       </c>
       <c r="Q3" s="1">
         <v>13.259613</v>
       </c>
       <c r="R3" s="1">
-        <v>950.798000</v>
+        <v>950.798</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.245000</v>
+        <v>-104.245</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>47745.186968</v>
+        <v>47745.186968000002</v>
       </c>
       <c r="V3" s="1">
-        <v>13.262552</v>
+        <v>13.262551999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>957.128000</v>
+        <v>957.12800000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.419500</v>
+        <v>-90.419499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>47755.637208</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.265455</v>
+        <v>13.265454999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.547000</v>
+        <v>964.54700000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.404300</v>
+        <v>-80.404300000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>47766.210396</v>
+        <v>47766.210396000002</v>
       </c>
       <c r="AF3" s="1">
         <v>13.268392</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.568000</v>
+        <v>969.56799999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.068800</v>
+        <v>-80.068799999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>47776.612493</v>
+        <v>47776.612493000001</v>
       </c>
       <c r="AK3" s="1">
         <v>13.271281</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.490000</v>
+        <v>977.49</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.053900</v>
+        <v>-88.053899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>47787.163392</v>
+        <v>47787.163392000002</v>
       </c>
       <c r="AP3" s="1">
         <v>13.274212</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.696000</v>
+        <v>986.69600000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>47798.146810</v>
+        <v>47798.146809999998</v>
       </c>
       <c r="AU3" s="1">
         <v>13.277263</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.115000</v>
+        <v>998.11500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.839000</v>
+        <v>-124.839</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>47809.615825</v>
+        <v>47809.615825000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.280449</v>
+        <v>13.280449000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>47820.503971</v>
+        <v>47820.503970999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.283473</v>
+        <v>13.283473000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.280000</v>
+        <v>1053.28</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.230000</v>
+        <v>-229.23</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>47831.365862</v>
+        <v>47831.365861999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.286491</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.502000</v>
+        <v>-366.50200000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>47842.897846</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.289694</v>
+        <v>13.289694000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.810000</v>
+        <v>1264.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.984000</v>
+        <v>-578.98400000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>47853.273655</v>
+        <v>47853.273654999997</v>
       </c>
       <c r="BT3" s="1">
         <v>13.292576</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV3" s="1">
-        <v>-806.161000</v>
+        <v>-806.16099999999994</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>47863.941113</v>
+        <v>47863.941113000001</v>
       </c>
       <c r="BY3" s="1">
         <v>13.295539</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.910000</v>
+        <v>1575.91</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1044.340000</v>
+        <v>-1044.3399999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>47875.440398</v>
+        <v>47875.440397999999</v>
       </c>
       <c r="CD3" s="1">
         <v>13.298733</v>
       </c>
       <c r="CE3" s="1">
-        <v>1989.260000</v>
+        <v>1989.26</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1601.360000</v>
+        <v>-1601.36</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>47703.659423</v>
+        <v>47703.659422999997</v>
       </c>
       <c r="B4" s="1">
-        <v>13.251017</v>
+        <v>13.251016999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>905.225000</v>
+        <v>905.22500000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.968000</v>
+        <v>-196.96799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>47714.029776</v>
+        <v>47714.029776000003</v>
       </c>
       <c r="G4" s="1">
         <v>13.253897</v>
       </c>
       <c r="H4" s="1">
-        <v>922.213000</v>
+        <v>922.21299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.695000</v>
+        <v>-166.69499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>47724.469571</v>
+        <v>47724.469571000001</v>
       </c>
       <c r="L4" s="1">
-        <v>13.256797</v>
+        <v>13.256797000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.210000</v>
+        <v>944.21</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.540000</v>
+        <v>-119.54</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>47734.954004</v>
+        <v>47734.954003999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.259709</v>
+        <v>13.259709000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>950.778000</v>
+        <v>950.77800000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.255000</v>
+        <v>-104.255</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>47745.874954</v>
+        <v>47745.874953999999</v>
       </c>
       <c r="V4" s="1">
         <v>13.262743</v>
       </c>
       <c r="W4" s="1">
-        <v>957.280000</v>
+        <v>957.28</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.424100</v>
+        <v>-90.424099999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>47755.984408</v>
+        <v>47755.984407999997</v>
       </c>
       <c r="AA4" s="1">
         <v>13.265551</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.551000</v>
+        <v>964.55100000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.519000</v>
+        <v>-80.519000000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>47766.553658</v>
+        <v>47766.553657999997</v>
       </c>
       <c r="AF4" s="1">
         <v>13.268487</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.496000</v>
+        <v>969.49599999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.105400</v>
+        <v>-80.105400000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>47776.960188</v>
+        <v>47776.960187999997</v>
       </c>
       <c r="AK4" s="1">
         <v>13.271378</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.477000</v>
+        <v>977.47699999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.070200</v>
+        <v>-88.0702</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>47787.856303</v>
@@ -1115,225 +1531,225 @@
         <v>13.274405</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.701000</v>
+        <v>986.70100000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.149000</v>
+        <v>-103.149</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>47798.818383</v>
+        <v>47798.818382999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.277450</v>
+        <v>13.27745</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.135000</v>
+        <v>998.13499999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.869000</v>
+        <v>-124.869</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>47810.021520</v>
+        <v>47810.021520000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.280562</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.770000</v>
+        <v>1007.77</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.732000</v>
+        <v>-143.732</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>47820.690962</v>
+        <v>47820.690962000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.283525</v>
+        <v>13.283524999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.244000</v>
+        <v>-229.244</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>47831.752910</v>
+        <v>47831.752910000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.286598</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.960000</v>
+        <v>1132.96</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.513000</v>
+        <v>-366.51299999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>47843.283238</v>
+        <v>47843.283238000004</v>
       </c>
       <c r="BO4" s="1">
-        <v>13.289801</v>
+        <v>13.289801000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.031000</v>
+        <v>-579.03099999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>47853.710150</v>
+        <v>47853.710149999999</v>
       </c>
       <c r="BT4" s="1">
         <v>13.292697</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.710000</v>
+        <v>1412.71</v>
       </c>
       <c r="BV4" s="1">
-        <v>-806.243000</v>
+        <v>-806.24300000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>47864.372634</v>
+        <v>47864.372633999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.295659</v>
+        <v>13.295659000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.820000</v>
+        <v>1575.82</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1044.230000</v>
+        <v>-1044.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>47875.985500</v>
+        <v>47875.985500000003</v>
       </c>
       <c r="CD4" s="1">
         <v>13.298885</v>
       </c>
       <c r="CE4" s="1">
-        <v>1987.760000</v>
+        <v>1987.76</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1599.770000</v>
+        <v>-1599.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>47703.960493</v>
+        <v>47703.960492999999</v>
       </c>
       <c r="B5" s="1">
-        <v>13.251100</v>
+        <v>13.251099999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>905.403000</v>
+        <v>905.40300000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>47714.374031</v>
+        <v>47714.374030999999</v>
       </c>
       <c r="G5" s="1">
-        <v>13.253993</v>
+        <v>13.253992999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>922.697000</v>
+        <v>922.697</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.688000</v>
+        <v>-166.68799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>47725.162977</v>
       </c>
       <c r="L5" s="1">
-        <v>13.256990</v>
+        <v>13.25699</v>
       </c>
       <c r="M5" s="1">
-        <v>944.277000</v>
+        <v>944.27700000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.669000</v>
+        <v>-119.669</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>47735.649427</v>
+        <v>47735.649426999997</v>
       </c>
       <c r="Q5" s="1">
         <v>13.259903</v>
       </c>
       <c r="R5" s="1">
-        <v>950.772000</v>
+        <v>950.77200000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.211000</v>
+        <v>-104.211</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>47746.212198</v>
+        <v>47746.212198000001</v>
       </c>
       <c r="V5" s="1">
-        <v>13.262837</v>
+        <v>13.262836999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>957.254000</v>
+        <v>957.25400000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.388000</v>
+        <v>-90.388000000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>47756.332600</v>
+        <v>47756.332600000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.265648</v>
+        <v>13.265648000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.510000</v>
+        <v>964.51</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.505400</v>
+        <v>-80.505399999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>47766.898877</v>
@@ -1342,118 +1758,118 @@
         <v>13.268583</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.611000</v>
+        <v>969.61099999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.119400</v>
+        <v>-80.119399999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47777.639244</v>
+        <v>47777.639243999998</v>
       </c>
       <c r="AK5" s="1">
         <v>13.271566</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.470000</v>
+        <v>977.47</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.035600</v>
+        <v>-88.035600000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>47788.272447</v>
+        <v>47788.272447000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.274520</v>
+        <v>13.274520000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.704000</v>
+        <v>986.70399999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.157000</v>
+        <v>-103.157</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>47799.273216</v>
+        <v>47799.273216000001</v>
       </c>
       <c r="AU5" s="1">
         <v>13.277576</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.151000</v>
+        <v>998.15099999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.848000</v>
+        <v>-124.848</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>47810.409392</v>
+        <v>47810.409392000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.280669</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.740000</v>
+        <v>-143.74</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>47821.054034</v>
+        <v>47821.054034000001</v>
       </c>
       <c r="BE5" s="1">
         <v>13.283626</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.280000</v>
+        <v>1053.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.233000</v>
+        <v>-229.233</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>47832.129736</v>
+        <v>47832.129736000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.286703</v>
+        <v>13.286702999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.960000</v>
+        <v>1132.96</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.526000</v>
+        <v>-366.52600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>47843.718530</v>
+        <v>47843.718529999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.289922</v>
+        <v>13.289922000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.046000</v>
+        <v>-579.04600000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>47854.154552</v>
@@ -1462,13 +1878,13 @@
         <v>13.292821</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.660000</v>
+        <v>1412.66</v>
       </c>
       <c r="BV5" s="1">
-        <v>-806.359000</v>
+        <v>-806.35900000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>47864.793737</v>
@@ -1477,90 +1893,90 @@
         <v>13.295776</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.020000</v>
+        <v>1576.02</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1044.180000</v>
+        <v>-1044.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>47876.523129</v>
+        <v>47876.523129000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.299034</v>
+        <v>13.299034000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1988.160000</v>
+        <v>1988.16</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1601.730000</v>
+        <v>-1601.73</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>47704.642523</v>
+        <v>47704.642523000002</v>
       </c>
       <c r="B6" s="1">
-        <v>13.251290</v>
+        <v>13.251289999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>905.417000</v>
+        <v>905.41700000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.006000</v>
+        <v>-197.006</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>47715.061950</v>
+        <v>47715.061950000003</v>
       </c>
       <c r="G6" s="1">
         <v>13.254184</v>
       </c>
       <c r="H6" s="1">
-        <v>922.043000</v>
+        <v>922.04300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.562000</v>
+        <v>-166.56200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>47725.505216</v>
+        <v>47725.505215999998</v>
       </c>
       <c r="L6" s="1">
         <v>13.257085</v>
       </c>
       <c r="M6" s="1">
-        <v>944.360000</v>
+        <v>944.36</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.588000</v>
+        <v>-119.58799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>47736.002548</v>
+        <v>47736.002547999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.260001</v>
+        <v>13.260001000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>950.782000</v>
+        <v>950.78200000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.225000</v>
+        <v>-104.22499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>47746.559898</v>
@@ -1569,240 +1985,240 @@
         <v>13.262933</v>
       </c>
       <c r="W6" s="1">
-        <v>957.335000</v>
+        <v>957.33500000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.479000</v>
+        <v>-90.478999999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>47756.991751</v>
+        <v>47756.991751000001</v>
       </c>
       <c r="AA6" s="1">
         <v>13.265831</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.599000</v>
+        <v>964.59900000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.494700</v>
+        <v>-80.494699999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>47767.558675</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.268766</v>
+        <v>13.268765999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.548000</v>
+        <v>969.548</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.145100</v>
+        <v>-80.145099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>47778.004796</v>
+        <v>47778.004796000001</v>
       </c>
       <c r="AK6" s="1">
         <v>13.271668</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.478000</v>
+        <v>977.47799999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.093100</v>
+        <v>-88.093100000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>47788.632543</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.274620</v>
+        <v>13.274620000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.709000</v>
+        <v>986.70899999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.169000</v>
+        <v>-103.169</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>47799.632815</v>
+        <v>47799.632814999997</v>
       </c>
       <c r="AU6" s="1">
         <v>13.277676</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.120000</v>
+        <v>998.12</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.871000</v>
+        <v>-124.871</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>47810.786352</v>
+        <v>47810.786352000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.280774</v>
+        <v>13.280773999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.723000</v>
+        <v>-143.72300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>47821.488034</v>
+        <v>47821.488034000002</v>
       </c>
       <c r="BE6" s="1">
         <v>13.283747</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.250000</v>
+        <v>1053.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.238000</v>
+        <v>-229.238</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>47832.553779</v>
+        <v>47832.553779000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.286820</v>
+        <v>13.286820000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.500000</v>
+        <v>-366.5</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>47844.113076</v>
+        <v>47844.113076000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.290031</v>
+        <v>13.290031000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.991000</v>
+        <v>-578.99099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>47854.550358</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.292931</v>
+        <v>13.292930999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.590000</v>
+        <v>1412.59</v>
       </c>
       <c r="BV6" s="1">
-        <v>-806.558000</v>
+        <v>-806.55799999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>47865.211864</v>
+        <v>47865.211863999997</v>
       </c>
       <c r="BY6" s="1">
         <v>13.295892</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1044.210000</v>
+        <v>-1044.21</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>47877.061289</v>
+        <v>47877.061288999997</v>
       </c>
       <c r="CD6" s="1">
         <v>13.299184</v>
       </c>
       <c r="CE6" s="1">
-        <v>1988.450000</v>
+        <v>1988.45</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1599.440000</v>
+        <v>-1599.44</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>47704.991181</v>
+        <v>47704.991180999998</v>
       </c>
       <c r="B7" s="1">
         <v>13.251386</v>
       </c>
       <c r="C7" s="1">
-        <v>905.275000</v>
+        <v>905.27499999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.001000</v>
+        <v>-197.001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>47715.406175</v>
+        <v>47715.406174999996</v>
       </c>
       <c r="G7" s="1">
         <v>13.254279</v>
       </c>
       <c r="H7" s="1">
-        <v>922.260000</v>
+        <v>922.26</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.177000</v>
+        <v>-167.17699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>47725.851424</v>
       </c>
       <c r="L7" s="1">
-        <v>13.257181</v>
+        <v>13.257180999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>944.315000</v>
+        <v>944.31500000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.441000</v>
+        <v>-119.441</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>47736.349747</v>
@@ -1811,178 +2227,178 @@
         <v>13.260097</v>
       </c>
       <c r="R7" s="1">
-        <v>950.851000</v>
+        <v>950.851</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.220000</v>
+        <v>-104.22</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>47747.218616</v>
+        <v>47747.218615999998</v>
       </c>
       <c r="V7" s="1">
         <v>13.263116</v>
       </c>
       <c r="W7" s="1">
-        <v>957.225000</v>
+        <v>957.22500000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.447300</v>
+        <v>-90.447299999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>47757.381112</v>
+        <v>47757.381112000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.265939</v>
+        <v>13.265938999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.582000</v>
+        <v>964.58199999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.487600</v>
+        <v>-80.4876</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>47767.929063</v>
+        <v>47767.929063000003</v>
       </c>
       <c r="AF7" s="1">
         <v>13.268869</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.574000</v>
+        <v>969.57399999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.189300</v>
+        <v>-80.189300000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>47778.351963</v>
+        <v>47778.351963000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.271764</v>
+        <v>13.271763999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.476000</v>
+        <v>977.476</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.044700</v>
+        <v>-88.044700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>47788.996606</v>
+        <v>47788.996606000001</v>
       </c>
       <c r="AP7" s="1">
         <v>13.274721</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.702000</v>
+        <v>986.702</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>47800.003327</v>
+        <v>47800.003326999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.277779</v>
+        <v>13.277779000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.146000</v>
+        <v>998.14599999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.848000</v>
+        <v>-124.848</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>47811.207457</v>
+        <v>47811.207456999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.280891</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>47821.774263</v>
+        <v>47821.774262999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.283826</v>
+        <v>13.283825999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.235000</v>
+        <v>-229.23500000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>47832.879154</v>
+        <v>47832.879154000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.286911</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.535000</v>
+        <v>-366.53500000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>47844.536132</v>
+        <v>47844.536132000001</v>
       </c>
       <c r="BO7" s="1">
         <v>13.290149</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.850000</v>
+        <v>1264.8499999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.044000</v>
+        <v>-579.04399999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>47854.983861</v>
+        <v>47854.983861000001</v>
       </c>
       <c r="BT7" s="1">
         <v>13.293051</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.630000</v>
+        <v>1412.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-806.610000</v>
+        <v>-806.61</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>47865.640903</v>
@@ -1991,150 +2407,150 @@
         <v>13.296011</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1044.230000</v>
+        <v>-1044.23</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>47877.600476</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.299333</v>
+        <v>13.299333000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.540000</v>
+        <v>1987.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1601.350000</v>
+        <v>-1601.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>47705.334908</v>
+        <v>47705.334907999997</v>
       </c>
       <c r="B8" s="1">
-        <v>13.251482</v>
+        <v>13.251481999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>905.541000</v>
+        <v>905.54100000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.966000</v>
+        <v>-196.96600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>47715.750430</v>
+        <v>47715.75043</v>
       </c>
       <c r="G8" s="1">
         <v>13.254375</v>
       </c>
       <c r="H8" s="1">
-        <v>922.506000</v>
+        <v>922.50599999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.653000</v>
+        <v>-166.65299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>47726.506143</v>
+        <v>47726.506142999999</v>
       </c>
       <c r="L8" s="1">
         <v>13.257363</v>
       </c>
       <c r="M8" s="1">
-        <v>944.318000</v>
+        <v>944.31799999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.685000</v>
+        <v>-119.685</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>47737.050630</v>
+        <v>47737.050629999998</v>
       </c>
       <c r="Q8" s="1">
         <v>13.260292</v>
       </c>
       <c r="R8" s="1">
-        <v>950.820000</v>
+        <v>950.82</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.252000</v>
+        <v>-104.252</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>47747.596564</v>
+        <v>47747.596563999999</v>
       </c>
       <c r="V8" s="1">
         <v>13.263221</v>
       </c>
       <c r="W8" s="1">
-        <v>957.229000</v>
+        <v>957.22900000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.477000</v>
+        <v>-90.477000000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>47757.726326</v>
+        <v>47757.726326000004</v>
       </c>
       <c r="AA8" s="1">
         <v>13.266035</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.540000</v>
+        <v>964.54</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.426200</v>
+        <v>-80.426199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>47768.272760</v>
+        <v>47768.27276</v>
       </c>
       <c r="AF8" s="1">
         <v>13.268965</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.635000</v>
+        <v>969.63499999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.091100</v>
+        <v>-80.091099999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>47778.703660</v>
+        <v>47778.703659999999</v>
       </c>
       <c r="AK8" s="1">
         <v>13.271862</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.460000</v>
+        <v>977.46</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.072700</v>
+        <v>-88.072699999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>47789.430108</v>
@@ -2143,43 +2559,43 @@
         <v>13.274842</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.702000</v>
+        <v>986.702</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>47800.420994</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.277895</v>
+        <v>13.277894999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.136000</v>
+        <v>998.13599999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>47811.504821</v>
+        <v>47811.504821000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>13.280974</v>
+        <v>13.280974000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.719000</v>
+        <v>-143.71899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>47822.137056</v>
@@ -2188,73 +2604,73 @@
         <v>13.283927</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.209000</v>
+        <v>-229.209</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>47833.262562</v>
+        <v>47833.262562000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.287017</v>
+        <v>13.287017000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.487000</v>
+        <v>-366.48700000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>47844.935410</v>
+        <v>47844.935409999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.290260</v>
+        <v>13.29026</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.030000</v>
+        <v>-579.03</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>47855.418357</v>
+        <v>47855.418357000002</v>
       </c>
       <c r="BT8" s="1">
         <v>13.293172</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.730000</v>
+        <v>1412.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-806.740000</v>
+        <v>-806.74</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>47866.058572</v>
+        <v>47866.058572000002</v>
       </c>
       <c r="BY8" s="1">
         <v>13.296127</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1576.040000</v>
+        <v>1576.04</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1044.220000</v>
+        <v>-1044.22</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>47878.141614</v>
@@ -2263,45 +2679,45 @@
         <v>13.299484</v>
       </c>
       <c r="CE8" s="1">
-        <v>1989.260000</v>
+        <v>1989.26</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1600.450000</v>
+        <v>-1600.45</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>47705.976266</v>
+        <v>47705.976265999998</v>
       </c>
       <c r="B9" s="1">
-        <v>13.251660</v>
+        <v>13.251659999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>905.530000</v>
+        <v>905.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.006000</v>
+        <v>-197.006</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>47716.405148</v>
+        <v>47716.405147999998</v>
       </c>
       <c r="G9" s="1">
         <v>13.254557</v>
       </c>
       <c r="H9" s="1">
-        <v>922.473000</v>
+        <v>922.47299999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.630000</v>
+        <v>-166.63</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>47726.889055</v>
@@ -2310,226 +2726,226 @@
         <v>13.257469</v>
       </c>
       <c r="M9" s="1">
-        <v>944.272000</v>
+        <v>944.27200000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.512000</v>
+        <v>-119.512</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>47737.382914</v>
+        <v>47737.382914000002</v>
       </c>
       <c r="Q9" s="1">
         <v>13.260384</v>
       </c>
       <c r="R9" s="1">
-        <v>950.785000</v>
+        <v>950.78499999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.246000</v>
+        <v>-104.246</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>47747.943236</v>
+        <v>47747.943235999999</v>
       </c>
       <c r="V9" s="1">
         <v>13.263318</v>
       </c>
       <c r="W9" s="1">
-        <v>957.260000</v>
+        <v>957.26</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.549000</v>
+        <v>-90.549000000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>47758.075013</v>
+        <v>47758.075013000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.266132</v>
+        <v>13.266132000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.550000</v>
+        <v>964.55</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.456800</v>
+        <v>-80.456800000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>47768.616983</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.269060</v>
+        <v>13.26906</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.669000</v>
+        <v>969.66899999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.157000</v>
+        <v>-80.156999999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>47779.120795</v>
+        <v>47779.120795000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.271978</v>
+        <v>13.271978000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.476000</v>
+        <v>977.476</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.057000</v>
+        <v>-88.057000000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>47789.715839</v>
+        <v>47789.715838999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.274921</v>
+        <v>13.274921000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.711000</v>
+        <v>986.71100000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.167000</v>
+        <v>-103.167</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>47800.729501</v>
+        <v>47800.729501000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.277980</v>
+        <v>13.277979999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.135000</v>
+        <v>998.13499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.874000</v>
+        <v>-124.874</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>47811.865150</v>
+        <v>47811.865149999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.281074</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.711000</v>
+        <v>-143.71100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>47822.496897</v>
+        <v>47822.496896999997</v>
       </c>
       <c r="BE9" s="1">
         <v>13.284027</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.280000</v>
+        <v>1053.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.224000</v>
+        <v>-229.22399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>47833.653410</v>
+        <v>47833.653409999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.287126</v>
+        <v>13.287126000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.010000</v>
+        <v>1133.01</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.520000</v>
+        <v>-366.52</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>47845.359030</v>
+        <v>47845.35903</v>
       </c>
       <c r="BO9" s="1">
         <v>13.290378</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.995000</v>
+        <v>-578.995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>47855.815652</v>
+        <v>47855.815651999997</v>
       </c>
       <c r="BT9" s="1">
         <v>13.293282</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.750000</v>
+        <v>1412.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-806.863000</v>
+        <v>-806.86300000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>47866.504474</v>
+        <v>47866.504474000001</v>
       </c>
       <c r="BY9" s="1">
         <v>13.296251</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.850000</v>
+        <v>1575.85</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1044.240000</v>
+        <v>-1044.24</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>47878.682228</v>
+        <v>47878.682227999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.299634</v>
+        <v>13.299633999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.380000</v>
+        <v>1987.38</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1600.370000</v>
+        <v>-1600.37</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>47706.359181</v>
       </c>
@@ -2537,43 +2953,43 @@
         <v>13.251766</v>
       </c>
       <c r="C10" s="1">
-        <v>905.502000</v>
+        <v>905.50199999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.121000</v>
+        <v>-197.12100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>47716.788060</v>
+        <v>47716.788059999999</v>
       </c>
       <c r="G10" s="1">
-        <v>13.254663</v>
+        <v>13.254663000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>922.447000</v>
+        <v>922.447</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.784000</v>
+        <v>-166.78399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>47727.235758</v>
+        <v>47727.235758000003</v>
       </c>
       <c r="L10" s="1">
         <v>13.257565</v>
       </c>
       <c r="M10" s="1">
-        <v>944.400000</v>
+        <v>944.4</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.630000</v>
+        <v>-119.63</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>47737.741552</v>
@@ -2582,754 +2998,754 @@
         <v>13.260484</v>
       </c>
       <c r="R10" s="1">
-        <v>950.787000</v>
+        <v>950.78700000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.248000</v>
+        <v>-104.248</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>47748.289442</v>
+        <v>47748.289442000001</v>
       </c>
       <c r="V10" s="1">
-        <v>13.263414</v>
+        <v>13.263413999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>957.187000</v>
+        <v>957.18700000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.454400</v>
+        <v>-90.454400000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>47758.486693</v>
+        <v>47758.486692999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.266246</v>
+        <v>13.266246000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.443000</v>
+        <v>964.44299999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.515000</v>
+        <v>-80.515000000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>47769.039079</v>
+        <v>47769.039079000002</v>
       </c>
       <c r="AF10" s="1">
         <v>13.269178</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.618000</v>
+        <v>969.61800000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.050700</v>
+        <v>-80.050700000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>47779.398521</v>
+        <v>47779.398521000003</v>
       </c>
       <c r="AK10" s="1">
         <v>13.272055</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.446000</v>
+        <v>977.44600000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.081900</v>
+        <v>-88.081900000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>47790.074907</v>
+        <v>47790.074907000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.275021</v>
+        <v>13.275021000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.706000</v>
+        <v>986.70600000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>47801.092542</v>
+        <v>47801.092541999999</v>
       </c>
       <c r="AU10" s="1">
         <v>13.278081</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.124000</v>
+        <v>998.12400000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>47812.221278</v>
+        <v>47812.221277999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.281173</v>
+        <v>13.281173000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.729000</v>
+        <v>-143.72900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>47823.220269</v>
+        <v>47823.220268999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.284228</v>
+        <v>13.284228000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.320000</v>
+        <v>1053.32</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.206000</v>
+        <v>-229.20599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>47834.399922</v>
+        <v>47834.399921999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.287333</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.960000</v>
+        <v>1132.96</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.493000</v>
+        <v>-366.49299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>47845.748850</v>
+        <v>47845.748850000004</v>
       </c>
       <c r="BO10" s="1">
         <v>13.290486</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.840000</v>
+        <v>1264.8399999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.003000</v>
+        <v>-579.00300000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>47856.230307</v>
+        <v>47856.230306999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.293397</v>
+        <v>13.293397000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-806.973000</v>
+        <v>-806.97299999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>47866.925574</v>
+        <v>47866.925574000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.296368</v>
+        <v>13.296367999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.930000</v>
+        <v>1575.93</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1044.230000</v>
+        <v>-1044.23</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>47879.530870</v>
+        <v>47879.530870000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.299870</v>
+        <v>13.29987</v>
       </c>
       <c r="CE10" s="1">
-        <v>1988.590000</v>
+        <v>1988.59</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1599.950000</v>
+        <v>-1599.95</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>47706.704361</v>
+        <v>47706.704360999996</v>
       </c>
       <c r="B11" s="1">
-        <v>13.251862</v>
+        <v>13.251861999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>905.343000</v>
+        <v>905.34299999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.961000</v>
+        <v>-196.96100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>47717.131259</v>
+        <v>47717.131259000002</v>
       </c>
       <c r="G11" s="1">
         <v>13.254759</v>
       </c>
       <c r="H11" s="1">
-        <v>922.774000</v>
+        <v>922.774</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.612000</v>
+        <v>-166.61199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>47727.582461</v>
+        <v>47727.582460999998</v>
       </c>
       <c r="L11" s="1">
         <v>13.257662</v>
       </c>
       <c r="M11" s="1">
-        <v>944.139000</v>
+        <v>944.13900000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.572000</v>
+        <v>-119.572</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>47738.169106</v>
+        <v>47738.169106000001</v>
       </c>
       <c r="Q11" s="1">
         <v>13.260603</v>
       </c>
       <c r="R11" s="1">
-        <v>950.823000</v>
+        <v>950.82299999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.225000</v>
+        <v>-104.22499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>47748.706579</v>
+        <v>47748.706578999998</v>
       </c>
       <c r="V11" s="1">
-        <v>13.263530</v>
+        <v>13.263529999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>957.170000</v>
+        <v>957.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.425100</v>
+        <v>-90.4251</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>47758.779371</v>
+        <v>47758.779370999997</v>
       </c>
       <c r="AA11" s="1">
         <v>13.266328</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.522000</v>
+        <v>964.52200000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.455900</v>
+        <v>-80.4559</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>47769.330262</v>
+        <v>47769.330262000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.269258</v>
+        <v>13.269258000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.536000</v>
+        <v>969.53599999999994</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.131800</v>
+        <v>-80.131799999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>47779.746746</v>
+        <v>47779.746745999997</v>
       </c>
       <c r="AK11" s="1">
         <v>13.272152</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.476000</v>
+        <v>977.476</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.062100</v>
+        <v>-88.062100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>47790.435994</v>
+        <v>47790.435993999999</v>
       </c>
       <c r="AP11" s="1">
         <v>13.275121</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.714000</v>
+        <v>986.71400000000006</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.158000</v>
+        <v>-103.158</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>47801.460077</v>
+        <v>47801.460077000003</v>
       </c>
       <c r="AU11" s="1">
         <v>13.278183</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.139000</v>
+        <v>998.13900000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.870000</v>
+        <v>-124.87</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>47812.938493</v>
+        <v>47812.938493000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.281372</v>
+        <v>13.281371999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.730000</v>
+        <v>-143.72999999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>47823.605489</v>
+        <v>47823.605489000001</v>
       </c>
       <c r="BE11" s="1">
         <v>13.284335</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.270000</v>
+        <v>1053.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.229000</v>
+        <v>-229.22900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>47834.803659</v>
+        <v>47834.803658999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.287445</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.538000</v>
+        <v>-366.53800000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>47846.172434</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.290603</v>
+        <v>13.290603000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.042000</v>
+        <v>-579.04200000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>47856.958436</v>
+        <v>47856.958436000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.293600</v>
+        <v>13.2936</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.030000</v>
+        <v>1413.03</v>
       </c>
       <c r="BV11" s="1">
-        <v>-806.953000</v>
+        <v>-806.95299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>47867.658133</v>
+        <v>47867.658132999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.296572</v>
+        <v>13.296571999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.960000</v>
+        <v>1575.96</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1044.300000</v>
+        <v>-1044.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>47879.759524</v>
+        <v>47879.759524000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.299933</v>
+        <v>13.299932999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1988.760000</v>
+        <v>1988.76</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1599.690000</v>
+        <v>-1599.69</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>47707.047593</v>
+        <v>47707.047593000003</v>
       </c>
       <c r="B12" s="1">
         <v>13.251958</v>
       </c>
       <c r="C12" s="1">
-        <v>905.556000</v>
+        <v>905.55600000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.027000</v>
+        <v>-197.02699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>47717.476507</v>
+        <v>47717.476506999999</v>
       </c>
       <c r="G12" s="1">
-        <v>13.254855</v>
+        <v>13.254854999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>922.360000</v>
+        <v>922.36</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.007000</v>
+        <v>-167.00700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>47727.992653</v>
+        <v>47727.992653000001</v>
       </c>
       <c r="L12" s="1">
         <v>13.257776</v>
       </c>
       <c r="M12" s="1">
-        <v>944.184000</v>
+        <v>944.18399999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.575000</v>
+        <v>-119.575</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>47738.446337</v>
+        <v>47738.446337000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.260680</v>
+        <v>13.260680000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>950.824000</v>
+        <v>950.82399999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.222000</v>
+        <v>-104.22199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>47748.985826</v>
+        <v>47748.985825999996</v>
       </c>
       <c r="V12" s="1">
         <v>13.263607</v>
       </c>
       <c r="W12" s="1">
-        <v>957.238000</v>
+        <v>957.23800000000006</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.426100</v>
+        <v>-90.426100000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>47759.112147</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.266420</v>
+        <v>13.26642</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.590000</v>
+        <v>964.59</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.472500</v>
+        <v>-80.472499999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>47769.672966</v>
+        <v>47769.672965999998</v>
       </c>
       <c r="AF12" s="1">
         <v>13.269354</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.467000</v>
+        <v>969.46699999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.167300</v>
+        <v>-80.167299999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>47780.098873</v>
+        <v>47780.098873000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.272250</v>
+        <v>13.27225</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.465000</v>
+        <v>977.46500000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.038800</v>
+        <v>-88.038799999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>47791.153706</v>
+        <v>47791.153705999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.275320</v>
+        <v>13.275320000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.711000</v>
+        <v>986.71100000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>47802.189724</v>
+        <v>47802.189724000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.278386</v>
+        <v>13.278385999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.130000</v>
+        <v>998.13</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.870000</v>
+        <v>-124.87</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>47813.296606</v>
+        <v>47813.296606000004</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.281471</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.714000</v>
+        <v>-143.714</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>47823.967575</v>
+        <v>47823.967575000002</v>
       </c>
       <c r="BE12" s="1">
         <v>13.284435</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.212000</v>
+        <v>-229.21199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>47835.177650</v>
+        <v>47835.177649999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.287549</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.504000</v>
+        <v>-366.50400000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>47846.874272</v>
+        <v>47846.874272000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.290798</v>
+        <v>13.290798000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.840000</v>
+        <v>1264.8399999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.013000</v>
+        <v>-579.01300000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>47857.076980</v>
+        <v>47857.076979999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.293632</v>
+        <v>13.293632000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.210000</v>
+        <v>1413.21</v>
       </c>
       <c r="BV12" s="1">
-        <v>-806.919000</v>
+        <v>-806.91899999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>47867.830245</v>
+        <v>47867.830244999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.296620</v>
+        <v>13.296620000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.800000</v>
+        <v>1575.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1044.340000</v>
+        <v>-1044.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>47880.278866</v>
+        <v>47880.278866000001</v>
       </c>
       <c r="CD12" s="1">
         <v>13.300077</v>
       </c>
       <c r="CE12" s="1">
-        <v>1986.950000</v>
+        <v>1986.95</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1600.380000</v>
+        <v>-1600.38</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>47707.469192</v>
+        <v>47707.469191999997</v>
       </c>
       <c r="B13" s="1">
         <v>13.252075</v>
       </c>
       <c r="C13" s="1">
-        <v>905.540000</v>
+        <v>905.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.963000</v>
+        <v>-196.96299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>47717.892620</v>
+        <v>47717.892619999999</v>
       </c>
       <c r="G13" s="1">
-        <v>13.254970</v>
+        <v>13.25497</v>
       </c>
       <c r="H13" s="1">
-        <v>922.433000</v>
+        <v>922.43299999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.928000</v>
+        <v>-166.928</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>47728.281852</v>
@@ -3338,58 +3754,58 @@
         <v>13.257856</v>
       </c>
       <c r="M13" s="1">
-        <v>944.408000</v>
+        <v>944.40800000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.684000</v>
+        <v>-119.684</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>47738.795534</v>
+        <v>47738.795533999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.260777</v>
+        <v>13.260776999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>950.813000</v>
+        <v>950.81299999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.226000</v>
+        <v>-104.226</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47749.328561</v>
+        <v>47749.328561000002</v>
       </c>
       <c r="V13" s="1">
         <v>13.263702</v>
       </c>
       <c r="W13" s="1">
-        <v>957.173000</v>
+        <v>957.173</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.363500</v>
+        <v>-90.363500000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>47759.483156</v>
+        <v>47759.483156000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.266523</v>
+        <v>13.266522999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.517000</v>
+        <v>964.51700000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.496200</v>
+        <v>-80.496200000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>47770.018183</v>
@@ -3398,58 +3814,58 @@
         <v>13.269449</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.483000</v>
+        <v>969.48299999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.088900</v>
+        <v>-80.088899999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>47780.790797</v>
+        <v>47780.790797000001</v>
       </c>
       <c r="AK13" s="1">
         <v>13.272442</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.450000</v>
+        <v>977.45</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.083900</v>
+        <v>-88.0839</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>47791.514297</v>
+        <v>47791.514297000002</v>
       </c>
       <c r="AP13" s="1">
         <v>13.275421</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.700000</v>
+        <v>986.7</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.158000</v>
+        <v>-103.158</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>47802.579062</v>
+        <v>47802.579061999997</v>
       </c>
       <c r="AU13" s="1">
         <v>13.278494</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.125000</v>
+        <v>998.125</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.859000</v>
+        <v>-124.85899999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>47813.656701</v>
@@ -3458,106 +3874,106 @@
         <v>13.281571</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.731000</v>
+        <v>-143.73099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>47824.645103</v>
+        <v>47824.645103000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.284624</v>
+        <v>13.284624000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.270000</v>
+        <v>1053.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.227000</v>
+        <v>-229.227</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>47835.869164</v>
+        <v>47835.869164000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.287741</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.508000</v>
+        <v>-366.50799999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>47846.987899</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.290830</v>
+        <v>13.29083</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.066000</v>
+        <v>-579.06600000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>47857.491634</v>
+        <v>47857.491633999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.293748</v>
+        <v>13.293748000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.290000</v>
+        <v>1413.29</v>
       </c>
       <c r="BV13" s="1">
-        <v>-806.829000</v>
+        <v>-806.82899999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>47868.255323</v>
+        <v>47868.255322999998</v>
       </c>
       <c r="BY13" s="1">
         <v>13.296738</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.900000</v>
+        <v>1575.9</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1044.100000</v>
+        <v>-1044.0999999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>47880.798644</v>
+        <v>47880.798644000002</v>
       </c>
       <c r="CD13" s="1">
         <v>13.300222</v>
       </c>
       <c r="CE13" s="1">
-        <v>1987.700000</v>
+        <v>1987.7</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1599.730000</v>
+        <v>-1599.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>47707.743016</v>
       </c>
@@ -3565,163 +3981,163 @@
         <v>13.252151</v>
       </c>
       <c r="C14" s="1">
-        <v>905.385000</v>
+        <v>905.38499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.934000</v>
+        <v>-196.934</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>47718.171370</v>
+        <v>47718.171369999996</v>
       </c>
       <c r="G14" s="1">
         <v>13.255048</v>
       </c>
       <c r="H14" s="1">
-        <v>922.573000</v>
+        <v>922.57299999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.049000</v>
+        <v>-167.04900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>47728.626079</v>
+        <v>47728.626079000001</v>
       </c>
       <c r="L14" s="1">
         <v>13.257952</v>
       </c>
       <c r="M14" s="1">
-        <v>944.271000</v>
+        <v>944.27099999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.594000</v>
+        <v>-119.59399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>47739.145210</v>
+        <v>47739.145210000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.260874</v>
+        <v>13.260873999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>950.807000</v>
+        <v>950.80700000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.233000</v>
+        <v>-104.233</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>47749.674805</v>
+        <v>47749.674805000002</v>
       </c>
       <c r="V14" s="1">
-        <v>13.263799</v>
+        <v>13.263799000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>957.288000</v>
+        <v>957.28800000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.549800</v>
+        <v>-90.549800000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>47760.175958</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.266716</v>
+        <v>13.266716000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.569000</v>
+        <v>964.56899999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.469700</v>
+        <v>-80.469700000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>47770.702661</v>
+        <v>47770.702661000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.269640</v>
+        <v>13.269640000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.533000</v>
+        <v>969.53300000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.132100</v>
+        <v>-80.132099999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>47781.142978</v>
+        <v>47781.142978000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.272540</v>
+        <v>13.272539999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.484000</v>
+        <v>977.48400000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.052200</v>
+        <v>-88.052199999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>47791.875411</v>
+        <v>47791.875411000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.275521</v>
+        <v>13.275520999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.694000</v>
+        <v>986.69399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.144000</v>
+        <v>-103.14400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>47802.941626</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.278595</v>
+        <v>13.278594999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.131000</v>
+        <v>998.13099999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>47814.320846</v>
+        <v>47814.320846000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.281756</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.731000</v>
+        <v>-143.73099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>47825.079566</v>
@@ -3730,195 +4146,195 @@
         <v>13.284744</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.300000</v>
+        <v>1053.3</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.237000</v>
+        <v>-229.23699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>47836.337758</v>
+        <v>47836.337758000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>13.287872</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.492000</v>
+        <v>-366.49200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>47847.414415</v>
+        <v>47847.414414999999</v>
       </c>
       <c r="BO14" s="1">
         <v>13.290948</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.016000</v>
+        <v>-579.01599999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>47857.918193</v>
+        <v>47857.918192999998</v>
       </c>
       <c r="BT14" s="1">
         <v>13.293866</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV14" s="1">
-        <v>-806.832000</v>
+        <v>-806.83199999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>47868.701219</v>
+        <v>47868.701219000002</v>
       </c>
       <c r="BY14" s="1">
         <v>13.296861</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1044.280000</v>
+        <v>-1044.28</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>47881.351223</v>
+        <v>47881.351222999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>13.300375</v>
+        <v>13.300375000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1988.540000</v>
+        <v>1988.54</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1599.540000</v>
+        <v>-1599.54</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>47708.085720</v>
+        <v>47708.085720000003</v>
       </c>
       <c r="B15" s="1">
         <v>13.252246</v>
       </c>
       <c r="C15" s="1">
-        <v>905.517000</v>
+        <v>905.51700000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.086000</v>
+        <v>-197.08600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>47718.519097</v>
+        <v>47718.519096999997</v>
       </c>
       <c r="G15" s="1">
         <v>13.255144</v>
       </c>
       <c r="H15" s="1">
-        <v>922.894000</v>
+        <v>922.89400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.711000</v>
+        <v>-166.71100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>47728.970764</v>
+        <v>47728.970763999998</v>
       </c>
       <c r="L15" s="1">
-        <v>13.258047</v>
+        <v>13.258046999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>944.275000</v>
+        <v>944.27499999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.611000</v>
+        <v>-119.611</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>47739.842574</v>
+        <v>47739.842574000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.261067</v>
+        <v>13.261067000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>950.763000</v>
+        <v>950.76300000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.235000</v>
+        <v>-104.235</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>47750.360737</v>
+        <v>47750.360737000003</v>
       </c>
       <c r="V15" s="1">
         <v>13.263989</v>
       </c>
       <c r="W15" s="1">
-        <v>957.307000</v>
+        <v>957.30700000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.484900</v>
+        <v>-90.484899999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>47760.524259</v>
+        <v>47760.524258999998</v>
       </c>
       <c r="AA15" s="1">
         <v>13.266812</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.516000</v>
+        <v>964.51599999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.481300</v>
+        <v>-80.481300000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>47771.045894</v>
+        <v>47771.045894000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.269735</v>
+        <v>13.269735000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.506000</v>
+        <v>969.50599999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.208500</v>
+        <v>-80.208500000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>47781.491638</v>
@@ -3927,497 +4343,497 @@
         <v>13.272637</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.472000</v>
+        <v>977.47199999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.060000</v>
+        <v>-88.06</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>47792.551444</v>
+        <v>47792.551443999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.275709</v>
+        <v>13.275709000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.690000</v>
+        <v>986.69</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>47803.625149</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.278785</v>
+        <v>13.278784999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.149000</v>
+        <v>998.149</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.864000</v>
+        <v>-124.864</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>47814.734524</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.281871</v>
+        <v>13.281871000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.722000</v>
+        <v>-143.72200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>47825.441184</v>
+        <v>47825.441184000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.284845</v>
+        <v>13.284845000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.245000</v>
+        <v>-229.245</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>47836.829791</v>
+        <v>47836.829790999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.288008</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.498000</v>
+        <v>-366.49799999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>47847.810256</v>
+        <v>47847.810255999997</v>
       </c>
       <c r="BO15" s="1">
         <v>13.291058</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.013000</v>
+        <v>-579.01300000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>47858.350705</v>
+        <v>47858.350704999997</v>
       </c>
       <c r="BT15" s="1">
         <v>13.293986</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-806.660000</v>
+        <v>-806.66</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>47869.135716</v>
+        <v>47869.135715999997</v>
       </c>
       <c r="BY15" s="1">
         <v>13.296982</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.940000</v>
+        <v>1575.94</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1044.260000</v>
+        <v>-1044.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>47881.878466</v>
+        <v>47881.878466000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.300522</v>
+        <v>13.300522000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.710000</v>
+        <v>1986.71</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1600.570000</v>
+        <v>-1600.57</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>47708.427958</v>
       </c>
       <c r="B16" s="1">
-        <v>13.252341</v>
+        <v>13.252340999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>905.393000</v>
+        <v>905.39300000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.202000</v>
+        <v>-197.202</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>47718.863123</v>
+        <v>47718.863123000003</v>
       </c>
       <c r="G16" s="1">
-        <v>13.255240</v>
+        <v>13.255240000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>922.068000</v>
+        <v>922.06799999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.065000</v>
+        <v>-167.065</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>47729.663707</v>
       </c>
       <c r="L16" s="1">
-        <v>13.258240</v>
+        <v>13.258240000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>944.096000</v>
+        <v>944.096</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.479000</v>
+        <v>-119.479</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>47740.189312</v>
+        <v>47740.189312000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.261164</v>
+        <v>13.261164000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>950.790000</v>
+        <v>950.79</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.187000</v>
+        <v>-104.187</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>47750.703474</v>
+        <v>47750.703474000002</v>
       </c>
       <c r="V16" s="1">
         <v>13.264084</v>
       </c>
       <c r="W16" s="1">
-        <v>957.185000</v>
+        <v>957.18499999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.474900</v>
+        <v>-90.474900000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>47760.875926</v>
+        <v>47760.875926000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.266910</v>
+        <v>13.266909999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.568000</v>
+        <v>964.56799999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.548500</v>
+        <v>-80.548500000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>47771.707091</v>
+        <v>47771.707090999997</v>
       </c>
       <c r="AF16" s="1">
         <v>13.269919</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.448000</v>
+        <v>969.44799999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.001800</v>
+        <v>-80.001800000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>47782.140406</v>
+        <v>47782.140405999999</v>
       </c>
       <c r="AK16" s="1">
         <v>13.272817</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.470000</v>
+        <v>977.47</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.046300</v>
+        <v>-88.046300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>47792.986423</v>
+        <v>47792.986423000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.275830</v>
+        <v>13.275829999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.699000</v>
+        <v>986.69899999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>47804.070026</v>
+        <v>47804.070026000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.278908</v>
+        <v>13.278907999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.131000</v>
+        <v>998.13099999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.844000</v>
+        <v>-124.84399999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>47815.121392</v>
+        <v>47815.121392000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.281978</v>
+        <v>13.281978000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.714000</v>
+        <v>-143.714</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>47825.802236</v>
+        <v>47825.802236000003</v>
       </c>
       <c r="BE16" s="1">
         <v>13.284945</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.300000</v>
+        <v>1053.3</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.208000</v>
+        <v>-229.208</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>47837.101598</v>
+        <v>47837.101598000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.288084</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.519000</v>
+        <v>-366.51900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>47848.230366</v>
+        <v>47848.230366000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.291175</v>
+        <v>13.291175000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.850000</v>
+        <v>1264.8499999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.062000</v>
+        <v>-579.06200000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>47858.751012</v>
+        <v>47858.751012000001</v>
       </c>
       <c r="BT16" s="1">
         <v>13.294098</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV16" s="1">
-        <v>-806.470000</v>
+        <v>-806.47</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>47869.555826</v>
+        <v>47869.555826000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.297099</v>
+        <v>13.297098999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.830000</v>
+        <v>1575.83</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1044.320000</v>
+        <v>-1044.32</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>47882.399235</v>
+        <v>47882.399234999997</v>
       </c>
       <c r="CD16" s="1">
         <v>13.300666</v>
       </c>
       <c r="CE16" s="1">
-        <v>1989.050000</v>
+        <v>1989.05</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1601.060000</v>
+        <v>-1601.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>47709.112470</v>
+        <v>47709.11247</v>
       </c>
       <c r="B17" s="1">
-        <v>13.252531</v>
+        <v>13.252530999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>905.502000</v>
+        <v>905.50199999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.989000</v>
+        <v>-196.989</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>47719.551240</v>
+        <v>47719.551240000001</v>
       </c>
       <c r="G17" s="1">
         <v>13.255431</v>
       </c>
       <c r="H17" s="1">
-        <v>922.739000</v>
+        <v>922.73900000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.031000</v>
+        <v>-167.03100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>47730.006410</v>
+        <v>47730.006410000002</v>
       </c>
       <c r="L17" s="1">
-        <v>13.258335</v>
+        <v>13.258335000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>944.323000</v>
+        <v>944.32299999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.536000</v>
+        <v>-119.536</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>47740.538989</v>
+        <v>47740.538989000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.261261</v>
+        <v>13.261260999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>950.791000</v>
+        <v>950.79100000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.167000</v>
+        <v>-104.167</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>47751.048192</v>
+        <v>47751.048192000002</v>
       </c>
       <c r="V17" s="1">
-        <v>13.264180</v>
+        <v>13.26418</v>
       </c>
       <c r="W17" s="1">
-        <v>957.174000</v>
+        <v>957.17399999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.321600</v>
+        <v>-90.321600000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>47761.532160</v>
+        <v>47761.532160000002</v>
       </c>
       <c r="AA17" s="1">
         <v>13.267092</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.577000</v>
+        <v>964.577</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.494300</v>
+        <v>-80.494299999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>47772.076579</v>
@@ -4426,452 +4842,452 @@
         <v>13.270021</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.527000</v>
+        <v>969.52700000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.329500</v>
+        <v>-80.329499999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>47782.537732</v>
+        <v>47782.537731999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.272927</v>
+        <v>13.272926999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.485000</v>
+        <v>977.48500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.065600</v>
+        <v>-88.065600000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>47793.348534</v>
+        <v>47793.348533999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.275930</v>
+        <v>13.275930000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.698000</v>
+        <v>986.69799999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>47804.438056</v>
+        <v>47804.438055999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.279011</v>
+        <v>13.279011000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.136000</v>
+        <v>998.13599999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.827000</v>
+        <v>-124.827</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>47815.475563</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.282077</v>
+        <v>13.282076999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.701000</v>
+        <v>-143.70099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>47826.219371</v>
+        <v>47826.219370999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.285061</v>
+        <v>13.285061000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.300000</v>
+        <v>1053.3</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.210000</v>
+        <v>-229.21</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>47837.853037</v>
+        <v>47837.853037000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.288293</v>
+        <v>13.288292999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.000000</v>
+        <v>1133</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.526000</v>
+        <v>-366.52600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>47848.627133</v>
+        <v>47848.627133000002</v>
       </c>
       <c r="BO17" s="1">
         <v>13.291285</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.054000</v>
+        <v>-579.05399999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>47859.164639</v>
+        <v>47859.164639000002</v>
       </c>
       <c r="BT17" s="1">
         <v>13.294212</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.420000</v>
+        <v>1413.42</v>
       </c>
       <c r="BV17" s="1">
-        <v>-806.344000</v>
+        <v>-806.34400000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>47869.980437</v>
+        <v>47869.980436999998</v>
       </c>
       <c r="BY17" s="1">
         <v>13.297217</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.790000</v>
+        <v>1575.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1044.190000</v>
+        <v>-1044.19</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>47882.939378</v>
+        <v>47882.939378000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.300816</v>
+        <v>13.300815999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1987.670000</v>
+        <v>1987.67</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1599.870000</v>
+        <v>-1599.87</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>47709.454710</v>
+        <v>47709.454709999998</v>
       </c>
       <c r="B18" s="1">
-        <v>13.252626</v>
+        <v>13.252625999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>905.472000</v>
+        <v>905.47199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.097000</v>
+        <v>-197.09700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>47719.921751</v>
+        <v>47719.921751000002</v>
       </c>
       <c r="G18" s="1">
-        <v>13.255534</v>
+        <v>13.255534000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>922.399000</v>
+        <v>922.399</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.251000</v>
+        <v>-167.251</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>47730.357083</v>
+        <v>47730.357083000003</v>
       </c>
       <c r="L18" s="1">
         <v>13.258433</v>
       </c>
       <c r="M18" s="1">
-        <v>944.242000</v>
+        <v>944.24199999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.566000</v>
+        <v>-119.566</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>47741.199642</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.261444</v>
+        <v>13.261443999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>950.859000</v>
+        <v>950.85900000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.218000</v>
+        <v>-104.218</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>47751.702947</v>
+        <v>47751.702946999998</v>
       </c>
       <c r="V18" s="1">
         <v>13.264362</v>
       </c>
       <c r="W18" s="1">
-        <v>957.357000</v>
+        <v>957.35699999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.936700</v>
+        <v>-89.936700000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>47761.919537</v>
+        <v>47761.919537000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.267200</v>
+        <v>13.267200000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.586000</v>
+        <v>964.58600000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.496900</v>
+        <v>-80.496899999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>47772.418356</v>
+        <v>47772.418356000002</v>
       </c>
       <c r="AF18" s="1">
         <v>13.270116</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.488000</v>
+        <v>969.48800000000006</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.146200</v>
+        <v>-80.146199999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>47782.886884</v>
       </c>
       <c r="AK18" s="1">
-        <v>13.273024</v>
+        <v>13.273023999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.456000</v>
+        <v>977.45600000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.090500</v>
+        <v>-88.090500000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>47793.705624</v>
+        <v>47793.705624000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.276029</v>
+        <v>13.276028999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.684000</v>
+        <v>986.68399999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>47804.852215</v>
+        <v>47804.852214999999</v>
       </c>
       <c r="AU18" s="1">
         <v>13.279126</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.130000</v>
+        <v>998.13</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.832000</v>
+        <v>-124.83199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>47815.904296</v>
+        <v>47815.904296000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.282196</v>
+        <v>13.282196000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.718000</v>
+        <v>-143.71799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>47826.521931</v>
+        <v>47826.521931000003</v>
       </c>
       <c r="BE18" s="1">
         <v>13.285145</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.280000</v>
+        <v>1053.28</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.224000</v>
+        <v>-229.22399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>47838.227062</v>
+        <v>47838.227061999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.288396</v>
+        <v>13.288396000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.950000</v>
+        <v>1132.95</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.507000</v>
+        <v>-366.50700000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>47849.051391</v>
+        <v>47849.051391000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.291403</v>
+        <v>13.291403000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.992000</v>
+        <v>-578.99199999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>47859.581775</v>
+        <v>47859.581774999999</v>
       </c>
       <c r="BT18" s="1">
         <v>13.294328</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.320000</v>
+        <v>1413.32</v>
       </c>
       <c r="BV18" s="1">
-        <v>-806.257000</v>
+        <v>-806.25699999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>47870.764576</v>
+        <v>47870.764576000001</v>
       </c>
       <c r="BY18" s="1">
         <v>13.297435</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.950000</v>
+        <v>1575.95</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1044.300000</v>
+        <v>-1044.3</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>47883.475566</v>
+        <v>47883.475566000001</v>
       </c>
       <c r="CD18" s="1">
         <v>13.300965</v>
       </c>
       <c r="CE18" s="1">
-        <v>1988.270000</v>
+        <v>1988.27</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1601.580000</v>
+        <v>-1601.58</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>47709.797201</v>
+        <v>47709.797201000001</v>
       </c>
       <c r="B19" s="1">
-        <v>13.252721</v>
+        <v>13.252720999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>905.393000</v>
+        <v>905.39300000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.016000</v>
+        <v>-197.01599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>47720.249609</v>
+        <v>47720.249608999999</v>
       </c>
       <c r="G19" s="1">
         <v>13.255625</v>
       </c>
       <c r="H19" s="1">
-        <v>922.390000</v>
+        <v>922.39</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.198000</v>
+        <v>-167.19800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>47731.005394</v>
@@ -4880,13 +5296,13 @@
         <v>13.258613</v>
       </c>
       <c r="M19" s="1">
-        <v>944.199000</v>
+        <v>944.19899999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.638000</v>
+        <v>-119.63800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>47741.586507</v>
@@ -4895,270 +5311,270 @@
         <v>13.261552</v>
       </c>
       <c r="R19" s="1">
-        <v>950.785000</v>
+        <v>950.78499999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.235000</v>
+        <v>-104.235</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>47752.075902</v>
+        <v>47752.075901999997</v>
       </c>
       <c r="V19" s="1">
-        <v>13.264466</v>
+        <v>13.264466000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>957.366000</v>
+        <v>957.36599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.812900</v>
+        <v>-89.812899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>47762.267201</v>
+        <v>47762.267201000002</v>
       </c>
       <c r="AA19" s="1">
         <v>13.267296</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.569000</v>
+        <v>964.56899999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.470600</v>
+        <v>-80.470600000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>47772.767011</v>
+        <v>47772.767011000004</v>
       </c>
       <c r="AF19" s="1">
         <v>13.270213</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.526000</v>
+        <v>969.52599999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.208600</v>
+        <v>-80.208600000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>47783.234581</v>
+        <v>47783.234580999997</v>
       </c>
       <c r="AK19" s="1">
         <v>13.273121</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.486000</v>
+        <v>977.48599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.054600</v>
+        <v>-88.054599999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>47794.130726</v>
+        <v>47794.130726000003</v>
       </c>
       <c r="AP19" s="1">
         <v>13.276147</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.681000</v>
+        <v>986.68100000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>47805.163208</v>
+        <v>47805.163207999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.279212</v>
+        <v>13.279211999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.149000</v>
+        <v>998.149</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.844000</v>
+        <v>-124.84399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>47816.194730</v>
+        <v>47816.194730000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.282276</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.721000</v>
+        <v>-143.721</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>47826.884011</v>
+        <v>47826.884011000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.285246</v>
+        <v>13.285246000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.223000</v>
+        <v>-229.22300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>47838.602265</v>
+        <v>47838.602265000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.288501</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.020000</v>
+        <v>1133.02</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.550000</v>
+        <v>-366.55</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>47849.446524</v>
+        <v>47849.446523999999</v>
       </c>
       <c r="BO19" s="1">
         <v>13.291513</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.840000</v>
+        <v>1264.8399999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.072000</v>
+        <v>-579.072</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>47860.004368</v>
+        <v>47860.004368000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>13.294446</v>
+        <v>13.294446000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV19" s="1">
-        <v>-806.168000</v>
+        <v>-806.16800000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>47871.283393</v>
+        <v>47871.283392999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.297579</v>
+        <v>13.297579000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.920000</v>
+        <v>1575.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1044.300000</v>
+        <v>-1044.3</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>47884.017185</v>
+        <v>47884.017184999997</v>
       </c>
       <c r="CD19" s="1">
         <v>13.301116</v>
       </c>
       <c r="CE19" s="1">
-        <v>1988.770000</v>
+        <v>1988.77</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1599.730000</v>
+        <v>-1599.73</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>47710.458580</v>
+        <v>47710.458579999999</v>
       </c>
       <c r="B20" s="1">
         <v>13.252905</v>
       </c>
       <c r="C20" s="1">
-        <v>905.427000</v>
+        <v>905.42700000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.075000</v>
+        <v>-197.07499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>47720.935574</v>
+        <v>47720.935574000003</v>
       </c>
       <c r="G20" s="1">
         <v>13.255815</v>
       </c>
       <c r="H20" s="1">
-        <v>922.223000</v>
+        <v>922.22299999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.157000</v>
+        <v>-167.15700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>47731.392232</v>
+        <v>47731.392231999998</v>
       </c>
       <c r="L20" s="1">
-        <v>13.258720</v>
+        <v>13.25872</v>
       </c>
       <c r="M20" s="1">
-        <v>944.355000</v>
+        <v>944.35500000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.766000</v>
+        <v>-119.76600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>47741.929776</v>
+        <v>47741.929775999997</v>
       </c>
       <c r="Q20" s="1">
         <v>13.261647</v>
       </c>
       <c r="R20" s="1">
-        <v>950.769000</v>
+        <v>950.76900000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.215000</v>
+        <v>-104.215</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>47752.423636</v>
@@ -5167,300 +5583,300 @@
         <v>13.264562</v>
       </c>
       <c r="W20" s="1">
-        <v>957.326000</v>
+        <v>957.32600000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.827000</v>
+        <v>-89.826999999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>47762.616385</v>
+        <v>47762.616385000001</v>
       </c>
       <c r="AA20" s="1">
         <v>13.267393</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.552000</v>
+        <v>964.55200000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.496300</v>
+        <v>-80.496300000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>47773.188641</v>
+        <v>47773.188641000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.270330</v>
+        <v>13.27033</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.535000</v>
+        <v>969.53499999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.141300</v>
+        <v>-80.141300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>47783.655684</v>
+        <v>47783.655683999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.273238</v>
+        <v>13.273237999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.482000</v>
+        <v>977.48199999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.049000</v>
+        <v>-88.049000000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>47794.426837</v>
+        <v>47794.426836999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.276230</v>
+        <v>13.27623</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.694000</v>
+        <v>986.69399999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.139000</v>
+        <v>-103.139</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>47805.529780</v>
+        <v>47805.529779999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.279314</v>
+        <v>13.279313999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.126000</v>
+        <v>998.12599999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.842000</v>
+        <v>-124.842</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>47816.552840</v>
+        <v>47816.552839999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.282376</v>
+        <v>13.282375999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.725000</v>
+        <v>-143.72499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>47827.247104</v>
+        <v>47827.247104000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.285346</v>
+        <v>13.285346000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.280000</v>
+        <v>1053.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.250000</v>
+        <v>-229.25</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>47839.353962</v>
+        <v>47839.353962000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.288709</v>
+        <v>13.288709000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.990000</v>
+        <v>1132.99</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.478000</v>
+        <v>-366.47800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>47849.867977</v>
+        <v>47849.867977000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.291630</v>
+        <v>13.29163</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.850000</v>
+        <v>1264.8499999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.086000</v>
+        <v>-579.08600000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>47860.408607</v>
+        <v>47860.408606999998</v>
       </c>
       <c r="BT20" s="1">
         <v>13.294558</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.020000</v>
+        <v>1413.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-806.168000</v>
+        <v>-806.16800000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>47871.716083</v>
+        <v>47871.716082999999</v>
       </c>
       <c r="BY20" s="1">
         <v>13.297699</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.950000</v>
+        <v>1575.95</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1044.300000</v>
+        <v>-1044.3</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>47884.555374</v>
+        <v>47884.555374000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.301265</v>
+        <v>13.301265000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1987.290000</v>
+        <v>1987.29</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1601.300000</v>
+        <v>-1601.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>47710.820661</v>
+        <v>47710.820660999998</v>
       </c>
       <c r="B21" s="1">
-        <v>13.253006</v>
+        <v>13.253005999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.418000</v>
+        <v>905.41800000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.935000</v>
+        <v>-196.935</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>47721.281288</v>
+        <v>47721.281287999998</v>
       </c>
       <c r="G21" s="1">
-        <v>13.255911</v>
+        <v>13.255910999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>922.265000</v>
+        <v>922.26499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.057000</v>
+        <v>-167.05699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>47731.736488</v>
+        <v>47731.736488000002</v>
       </c>
       <c r="L21" s="1">
-        <v>13.258816</v>
+        <v>13.258815999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>944.249000</v>
+        <v>944.24900000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.599000</v>
+        <v>-119.599</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>47742.284410</v>
+        <v>47742.28441</v>
       </c>
       <c r="Q21" s="1">
         <v>13.261746</v>
       </c>
       <c r="R21" s="1">
-        <v>950.812000</v>
+        <v>950.81200000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.221000</v>
+        <v>-104.221</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>47752.771790</v>
+        <v>47752.771789999999</v>
       </c>
       <c r="V21" s="1">
         <v>13.264659</v>
       </c>
       <c r="W21" s="1">
-        <v>957.352000</v>
+        <v>957.35199999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.821800</v>
+        <v>-89.821799999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>47763.044463</v>
+        <v>47763.044462999998</v>
       </c>
       <c r="AA21" s="1">
         <v>13.267512</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.578000</v>
+        <v>964.57799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.455800</v>
+        <v>-80.455799999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>47773.480754</v>
+        <v>47773.480753999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.270411</v>
+        <v>13.270410999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.548000</v>
+        <v>969.548</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.174500</v>
+        <v>-80.174499999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>47783.941411</v>
@@ -5469,13 +5885,13 @@
         <v>13.273317</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.472000</v>
+        <v>977.47199999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.082000</v>
+        <v>-88.081999999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>47794.785936</v>
@@ -5484,330 +5900,330 @@
         <v>13.276329</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.692000</v>
+        <v>986.69200000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>47805.895302</v>
+        <v>47805.895301999997</v>
       </c>
       <c r="AU21" s="1">
         <v>13.279415</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.136000</v>
+        <v>998.13599999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.853000</v>
+        <v>-124.85299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>47816.911480</v>
+        <v>47816.911480000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.282475</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.719000</v>
+        <v>-143.71899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>47827.970746</v>
+        <v>47827.970745999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>13.285547</v>
+        <v>13.285546999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.219000</v>
+        <v>-229.21899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>47839.730431</v>
+        <v>47839.730431000004</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.288814</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.970000</v>
+        <v>1132.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.491000</v>
+        <v>-366.49099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>47850.269389</v>
+        <v>47850.269389000001</v>
       </c>
       <c r="BO21" s="1">
         <v>13.291741</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.015000</v>
+        <v>-579.01499999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>47860.846606</v>
+        <v>47860.846605999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.294680</v>
+        <v>13.29468</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.850000</v>
+        <v>1412.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-806.204000</v>
+        <v>-806.20399999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>47872.438606</v>
+        <v>47872.438606000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.297900</v>
+        <v>13.2979</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1044.300000</v>
+        <v>-1044.3</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>47885.405981</v>
+        <v>47885.405981000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>13.301502</v>
+        <v>13.301501999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1987.920000</v>
+        <v>1987.92</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1599.690000</v>
+        <v>-1599.69</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>47711.163649</v>
+        <v>47711.163649000002</v>
       </c>
       <c r="B22" s="1">
-        <v>13.253101</v>
+        <v>13.253100999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>905.616000</v>
+        <v>905.61599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.012000</v>
+        <v>-197.012</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47721.624022</v>
+        <v>47721.624022000004</v>
       </c>
       <c r="G22" s="1">
         <v>13.256007</v>
       </c>
       <c r="H22" s="1">
-        <v>922.365000</v>
+        <v>922.36500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.841000</v>
+        <v>-166.84100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>47732.083688</v>
+        <v>47732.083687999999</v>
       </c>
       <c r="L22" s="1">
         <v>13.258912</v>
       </c>
       <c r="M22" s="1">
-        <v>944.431000</v>
+        <v>944.43100000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.586000</v>
+        <v>-119.586</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>47742.710771</v>
+        <v>47742.710770999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.261864</v>
+        <v>13.261863999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>950.797000</v>
+        <v>950.79700000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.199000</v>
+        <v>-104.199</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>47753.206325</v>
+        <v>47753.206324999999</v>
       </c>
       <c r="V22" s="1">
-        <v>13.264780</v>
+        <v>13.26478</v>
       </c>
       <c r="W22" s="1">
-        <v>957.312000</v>
+        <v>957.31200000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.802400</v>
+        <v>-89.802400000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>47763.324703</v>
+        <v>47763.324702999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.267590</v>
+        <v>13.26759</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.607000</v>
+        <v>964.60699999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.445400</v>
+        <v>-80.445400000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>47773.821008</v>
+        <v>47773.821007999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.270506</v>
+        <v>13.270505999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.516000</v>
+        <v>969.51599999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.180600</v>
+        <v>-80.180599999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>47784.293539</v>
+        <v>47784.293538999998</v>
       </c>
       <c r="AK22" s="1">
         <v>13.273415</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.480000</v>
+        <v>977.48</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.071000</v>
+        <v>-88.070999999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>47795.148020</v>
+        <v>47795.148020000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.276430</v>
+        <v>13.27643</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.667000</v>
+        <v>986.66700000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>47806.623429</v>
+        <v>47806.623428999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.279618</v>
+        <v>13.279617999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.118000</v>
+        <v>998.11800000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.825000</v>
+        <v>-124.825</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>47817.633623</v>
+        <v>47817.633623000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.282676</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.719000</v>
+        <v>-143.71899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>47828.326874</v>
+        <v>47828.326873999998</v>
       </c>
       <c r="BE22" s="1">
         <v>13.285646</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.215000</v>
+        <v>-229.215</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>47840.102286</v>
+        <v>47840.102286000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.288917</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.487000</v>
+        <v>-366.48700000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>47850.689003</v>
@@ -5816,861 +6232,861 @@
         <v>13.291858</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.046000</v>
+        <v>-579.04600000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>47861.584622</v>
+        <v>47861.584622000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.294885</v>
+        <v>13.294885000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1412.710000</v>
+        <v>1412.71</v>
       </c>
       <c r="BV22" s="1">
-        <v>-806.312000</v>
+        <v>-806.31200000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>47872.585390</v>
+        <v>47872.58539</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.297940</v>
+        <v>13.297940000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.920000</v>
+        <v>1575.92</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1044.350000</v>
+        <v>-1044.3499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>47885.637118</v>
+        <v>47885.637117999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.301566</v>
+        <v>13.301565999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1987.950000</v>
+        <v>1987.95</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1599.410000</v>
+        <v>-1599.41</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>47711.506629</v>
+        <v>47711.506629000003</v>
       </c>
       <c r="B23" s="1">
-        <v>13.253196</v>
+        <v>13.253196000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>905.416000</v>
+        <v>905.41600000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.930000</v>
+        <v>-196.93</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>47722.039701</v>
+        <v>47722.039701000002</v>
       </c>
       <c r="G23" s="1">
         <v>13.256122</v>
       </c>
       <c r="H23" s="1">
-        <v>922.351000</v>
+        <v>922.351</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.701000</v>
+        <v>-166.70099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>47732.500824</v>
+        <v>47732.500824000002</v>
       </c>
       <c r="L23" s="1">
-        <v>13.259028</v>
+        <v>13.259028000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>944.121000</v>
+        <v>944.12099999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.529000</v>
+        <v>-119.529</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>47742.991210</v>
+        <v>47742.99121</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.261942</v>
+        <v>13.261941999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>950.825000</v>
+        <v>950.82500000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.159000</v>
+        <v>-104.15900000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>47753.493965</v>
+        <v>47753.493965000001</v>
       </c>
       <c r="V23" s="1">
         <v>13.264859</v>
       </c>
       <c r="W23" s="1">
-        <v>957.398000</v>
+        <v>957.39800000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.894800</v>
+        <v>-89.894800000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>47763.673855</v>
+        <v>47763.673855000001</v>
       </c>
       <c r="AA23" s="1">
         <v>13.267687</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.601000</v>
+        <v>964.601</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.521500</v>
+        <v>-80.521500000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>47774.163745</v>
+        <v>47774.163744999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.270601</v>
+        <v>13.270600999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.532000</v>
+        <v>969.53200000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.159700</v>
+        <v>-80.159700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>47784.640508</v>
+        <v>47784.640507999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.273511</v>
+        <v>13.273510999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.481000</v>
+        <v>977.48099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.060800</v>
+        <v>-88.0608</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>47795.875654</v>
+        <v>47795.875654000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.276632</v>
+        <v>13.276631999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.657000</v>
+        <v>986.65700000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.140000</v>
+        <v>-103.14</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>47807.012790</v>
+        <v>47807.012790000001</v>
       </c>
       <c r="AU23" s="1">
         <v>13.279726</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.134000</v>
+        <v>998.13400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.854000</v>
+        <v>-124.854</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>47818.014054</v>
+        <v>47818.014053999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.282782</v>
+        <v>13.282781999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.721000</v>
+        <v>-143.721</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>47828.690472</v>
+        <v>47828.690472000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.285747</v>
+        <v>13.285747000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.290000</v>
+        <v>1053.29</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.208000</v>
+        <v>-229.208</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>47840.790840</v>
+        <v>47840.790840000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.289109</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.980000</v>
+        <v>1132.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.505000</v>
+        <v>-366.505</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>47851.398282</v>
+        <v>47851.398282000002</v>
       </c>
       <c r="BO23" s="1">
         <v>13.292055</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.820000</v>
+        <v>1264.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.062000</v>
+        <v>-579.06200000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>47861.720524</v>
+        <v>47861.720523999997</v>
       </c>
       <c r="BT23" s="1">
         <v>13.294922</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.590000</v>
+        <v>1412.59</v>
       </c>
       <c r="BV23" s="1">
-        <v>-806.388000</v>
+        <v>-806.38800000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>47873.012942</v>
+        <v>47873.012942000001</v>
       </c>
       <c r="BY23" s="1">
         <v>13.298059</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.930000</v>
+        <v>1575.93</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1044.270000</v>
+        <v>-1044.27</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>47886.160433</v>
+        <v>47886.160432999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.301711</v>
+        <v>13.301710999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1987.200000</v>
+        <v>1987.2</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1601.090000</v>
+        <v>-1601.09</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>47711.921780</v>
+        <v>47711.921779999997</v>
       </c>
       <c r="B24" s="1">
-        <v>13.253312</v>
+        <v>13.253311999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>905.553000</v>
+        <v>905.553</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.097000</v>
+        <v>-197.09700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>47722.321396</v>
+        <v>47722.321395999999</v>
       </c>
       <c r="G24" s="1">
-        <v>13.256200</v>
+        <v>13.2562</v>
       </c>
       <c r="H24" s="1">
-        <v>922.758000</v>
+        <v>922.75800000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.142000</v>
+        <v>-167.142</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>47732.795038</v>
+        <v>47732.795037999997</v>
       </c>
       <c r="L24" s="1">
-        <v>13.259110</v>
+        <v>13.25911</v>
       </c>
       <c r="M24" s="1">
-        <v>944.342000</v>
+        <v>944.34199999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.425000</v>
+        <v>-119.425</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>47743.339897</v>
+        <v>47743.339896999998</v>
       </c>
       <c r="Q24" s="1">
         <v>13.262039</v>
       </c>
       <c r="R24" s="1">
-        <v>950.775000</v>
+        <v>950.77499999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.225000</v>
+        <v>-104.22499999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>47753.834723</v>
       </c>
       <c r="V24" s="1">
-        <v>13.264954</v>
+        <v>13.264953999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>957.394000</v>
+        <v>957.39400000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.830700</v>
+        <v>-89.830699999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>47764.021582</v>
+        <v>47764.021582000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.267784</v>
+        <v>13.267784000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.547000</v>
+        <v>964.54700000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.475200</v>
+        <v>-80.475200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>47774.851199</v>
+        <v>47774.851198999997</v>
       </c>
       <c r="AF24" s="1">
         <v>13.270792</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.569000</v>
+        <v>969.56899999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.125600</v>
+        <v>-80.125600000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>47785.335635</v>
+        <v>47785.335635000003</v>
       </c>
       <c r="AK24" s="1">
         <v>13.273704</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.454000</v>
+        <v>977.45399999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.057700</v>
+        <v>-88.057699999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>47796.253107</v>
+        <v>47796.253106999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.276737</v>
+        <v>13.276737000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.667000</v>
+        <v>986.66700000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.129000</v>
+        <v>-103.129</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>47807.377844</v>
+        <v>47807.377844000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.279827</v>
+        <v>13.279826999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.134000</v>
+        <v>998.13400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>47818.399447</v>
+        <v>47818.399447000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.282889</v>
+        <v>13.282889000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.721000</v>
+        <v>-143.721</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>47829.356071</v>
+        <v>47829.356071000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.285932</v>
+        <v>13.285932000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.260000</v>
+        <v>1053.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.215000</v>
+        <v>-229.215</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>47841.233271</v>
+        <v>47841.233270999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.289231</v>
+        <v>13.289230999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.950000</v>
+        <v>1132.95</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.502000</v>
+        <v>-366.50200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>47851.506940</v>
+        <v>47851.506939999999</v>
       </c>
       <c r="BO24" s="1">
         <v>13.292085</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.800000</v>
+        <v>1264.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.060000</v>
+        <v>-579.05999999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>47862.133491</v>
+        <v>47862.133491000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.295037</v>
+        <v>13.295037000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.650000</v>
+        <v>1412.65</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.559000</v>
+        <v>-806.55899999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>47873.459836</v>
+        <v>47873.459836000002</v>
       </c>
       <c r="BY24" s="1">
         <v>13.298183</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1044.340000</v>
+        <v>-1044.3399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>47886.674252</v>
+        <v>47886.674251999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.301854</v>
+        <v>13.301854000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1988.860000</v>
+        <v>1988.86</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1601.590000</v>
+        <v>-1601.59</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>47712.203042</v>
+        <v>47712.203042000001</v>
       </c>
       <c r="B25" s="1">
-        <v>13.253390</v>
+        <v>13.25339</v>
       </c>
       <c r="C25" s="1">
-        <v>905.262000</v>
+        <v>905.26199999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.061000</v>
+        <v>-197.06100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>47722.665124</v>
+        <v>47722.665123999999</v>
       </c>
       <c r="G25" s="1">
-        <v>13.256296</v>
+        <v>13.256296000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.490000</v>
+        <v>922.49</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.731000</v>
+        <v>-166.73099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>47733.141128</v>
+        <v>47733.141128000003</v>
       </c>
       <c r="L25" s="1">
-        <v>13.259206</v>
+        <v>13.259206000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.259000</v>
+        <v>944.25900000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.640000</v>
+        <v>-119.64</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>47743.688088</v>
+        <v>47743.688088000003</v>
       </c>
       <c r="Q25" s="1">
         <v>13.262136</v>
       </c>
       <c r="R25" s="1">
-        <v>950.816000</v>
+        <v>950.81600000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.251000</v>
+        <v>-104.251</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>47754.404154</v>
+        <v>47754.404154000003</v>
       </c>
       <c r="V25" s="1">
         <v>13.265112</v>
       </c>
       <c r="W25" s="1">
-        <v>957.363000</v>
+        <v>957.36300000000006</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.778800</v>
+        <v>-89.778800000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>47764.718430</v>
+        <v>47764.718430000001</v>
       </c>
       <c r="AA25" s="1">
         <v>13.267977</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.603000</v>
+        <v>964.60299999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.457300</v>
+        <v>-80.457300000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>47775.194926</v>
+        <v>47775.194925999996</v>
       </c>
       <c r="AF25" s="1">
         <v>13.270887</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.530000</v>
+        <v>969.53</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.136000</v>
+        <v>-80.135999999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>47785.684816</v>
+        <v>47785.684816000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.273801</v>
+        <v>13.273801000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.477000</v>
+        <v>977.47699999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.065300</v>
+        <v>-88.065299999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>47796.610692</v>
+        <v>47796.610692000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.276836</v>
+        <v>13.276835999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.692000</v>
+        <v>986.69200000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>47808.048968</v>
+        <v>47808.048968000003</v>
       </c>
       <c r="AU25" s="1">
         <v>13.280014</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.166000</v>
+        <v>998.16600000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.837000</v>
+        <v>-124.837</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>47819.083430</v>
+        <v>47819.083429999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.283079</v>
+        <v>13.283079000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.712000</v>
+        <v>-143.71199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>47829.799036</v>
+        <v>47829.799035999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.286055</v>
+        <v>13.286054999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.260000</v>
+        <v>1053.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.224000</v>
+        <v>-229.22399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>47841.606793</v>
+        <v>47841.606792999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.289335</v>
+        <v>13.289334999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.960000</v>
+        <v>1132.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.506000</v>
+        <v>-366.50599999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>47851.927513</v>
+        <v>47851.927513000002</v>
       </c>
       <c r="BO25" s="1">
         <v>13.292202</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.830000</v>
+        <v>1264.83</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.991000</v>
+        <v>-578.99099999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>47862.562235</v>
+        <v>47862.562234999998</v>
       </c>
       <c r="BT25" s="1">
         <v>13.295156</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.670000</v>
+        <v>1412.67</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.728000</v>
+        <v>-806.72799999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>47873.892385</v>
+        <v>47873.892384999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.298303</v>
+        <v>13.298303000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.950000</v>
+        <v>1575.95</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1044.220000</v>
+        <v>-1044.22</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>47887.192075</v>
+        <v>47887.192074999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.301998</v>
+        <v>13.301997999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1988.670000</v>
+        <v>1988.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1599.950000</v>
+        <v>-1599.95</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>47712.546243</v>
+        <v>47712.546242999997</v>
       </c>
       <c r="B26" s="1">
         <v>13.253485</v>
       </c>
       <c r="C26" s="1">
-        <v>905.600000</v>
+        <v>905.6</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.049000</v>
+        <v>-197.04900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>47723.008853</v>
+        <v>47723.008852999999</v>
       </c>
       <c r="G26" s="1">
-        <v>13.256391</v>
+        <v>13.256391000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>922.174000</v>
+        <v>922.17399999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.984000</v>
+        <v>-166.98400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>47733.486374</v>
@@ -6679,133 +7095,133 @@
         <v>13.259302</v>
       </c>
       <c r="M26" s="1">
-        <v>944.240000</v>
+        <v>944.24</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.526000</v>
+        <v>-119.526</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>47744.382455</v>
+        <v>47744.382454999999</v>
       </c>
       <c r="Q26" s="1">
         <v>13.262328</v>
       </c>
       <c r="R26" s="1">
-        <v>950.781000</v>
+        <v>950.78099999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.230000</v>
+        <v>-104.23</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>47754.524156</v>
+        <v>47754.524155999999</v>
       </c>
       <c r="V26" s="1">
         <v>13.265146</v>
       </c>
       <c r="W26" s="1">
-        <v>957.421000</v>
+        <v>957.42100000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.811400</v>
+        <v>-89.811400000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>47765.067116</v>
+        <v>47765.067115999998</v>
       </c>
       <c r="AA26" s="1">
         <v>13.268074</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.506000</v>
+        <v>964.50599999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.481500</v>
+        <v>-80.481499999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>47775.538654</v>
+        <v>47775.538654000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.270983</v>
+        <v>13.270982999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.663000</v>
+        <v>969.66300000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.074700</v>
+        <v>-80.074700000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>47786.034496</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.273898</v>
+        <v>13.273898000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.469000</v>
+        <v>977.46900000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.061500</v>
+        <v>-88.061499999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>47797.293186</v>
+        <v>47797.293186000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.277026</v>
+        <v>13.277025999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.686000</v>
+        <v>986.68600000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>47808.505748</v>
+        <v>47808.505748000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.280140</v>
+        <v>13.280139999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.141000</v>
+        <v>998.14099999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.805000</v>
+        <v>-124.80500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>47819.476261</v>
+        <v>47819.476261000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.283188</v>
+        <v>13.283188000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.691000</v>
+        <v>-143.691</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>47830.160118</v>
@@ -6814,90 +7230,91 @@
         <v>13.286156</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.310000</v>
+        <v>1053.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.243000</v>
+        <v>-229.24299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>47841.984216</v>
+        <v>47841.984215999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.289440</v>
+        <v>13.289440000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.940000</v>
+        <v>1132.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.543000</v>
+        <v>-366.54300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>47852.321835</v>
+        <v>47852.321835000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.292312</v>
+        <v>13.292312000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.820000</v>
+        <v>1264.82</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.016000</v>
+        <v>-579.01599999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>47862.985324</v>
+        <v>47862.985324000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.295274</v>
+        <v>13.295273999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.720000</v>
+        <v>1412.72</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.917000</v>
+        <v>-806.91700000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>47874.311500</v>
+        <v>47874.311500000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.298420</v>
+        <v>13.29842</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.950000</v>
+        <v>1575.95</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1044.270000</v>
+        <v>-1044.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>47887.709403</v>
+        <v>47887.709403000001</v>
       </c>
       <c r="CD26" s="1">
         <v>13.302142</v>
       </c>
       <c r="CE26" s="1">
-        <v>1989.010000</v>
+        <v>1989.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1599.920000</v>
+        <v>-1599.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>